--- a/Midterm-exam/evidence/spreadsheets/per_site/www.lunner.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.lunner.kommune.no.xlsx
@@ -445,16 +445,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5271.54</v>
+        <v>6700.09</v>
       </c>
       <c r="C2">
-        <v>2262.924</v>
+        <v>2676.072</v>
       </c>
       <c r="D2">
-        <v>641</v>
+        <v>456</v>
       </c>
       <c r="E2">
-        <v>5731.509400000001</v>
+        <v>6722.59</v>
       </c>
       <c r="F2">
         <v>16</v>
@@ -463,13 +463,13 @@
         <v>0.0020052943368560174</v>
       </c>
       <c r="H2">
-        <v>2262.924</v>
+        <v>2676.072</v>
       </c>
       <c r="I2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J2">
-        <v>1239153</v>
+        <v>1159462</v>
       </c>
       <c r="K2">
         <v>46</v>
@@ -480,31 +480,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5428.178500000001</v>
+        <v>6636.6205</v>
       </c>
       <c r="C3">
-        <v>2478.1530000000002</v>
+        <v>2490.3890000000006</v>
       </c>
       <c r="D3">
-        <v>576</v>
+        <v>543</v>
       </c>
       <c r="E3">
-        <v>5876.964475000001</v>
+        <v>6651.620500000001</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>0.0023750654376463046</v>
+        <v>0.0020052943368560174</v>
       </c>
       <c r="H3">
-        <v>2478.1530000000002</v>
+        <v>2490.3890000000006</v>
       </c>
       <c r="I3">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J3">
-        <v>1239152</v>
+        <v>1159452</v>
       </c>
       <c r="K3">
         <v>46</v>
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4967.2175</v>
+        <v>7076.743499999999</v>
       </c>
       <c r="C4">
-        <v>2110.3305</v>
+        <v>2525.4614999999994</v>
       </c>
       <c r="D4">
-        <v>820</v>
+        <v>451</v>
       </c>
       <c r="E4">
-        <v>5596.111425000001</v>
+        <v>7136.7435</v>
       </c>
       <c r="F4">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G4">
-        <v>0.0020052943368560174</v>
+        <v>0.003864698216668795</v>
       </c>
       <c r="H4">
-        <v>2274.249476021242</v>
+        <v>2525.4614999999994</v>
       </c>
       <c r="I4">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J4">
-        <v>1239154</v>
+        <v>1159460</v>
       </c>
       <c r="K4">
         <v>46</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>5271.54</v>
+        <v>6700.09</v>
       </c>
       <c r="C5">
-        <v>2262.924</v>
+        <v>2525.4614999999994</v>
       </c>
       <c r="D5">
-        <v>641</v>
+        <v>456</v>
       </c>
       <c r="E5">
-        <v>5731.509400000001</v>
+        <v>6722.59</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G5">
         <v>0.0020052943368560174</v>
       </c>
       <c r="H5">
-        <v>2274.249476021242</v>
+        <v>2525.4614999999994</v>
       </c>
       <c r="I5">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J5">
-        <v>1239153</v>
+        <v>1159460</v>
       </c>
       <c r="K5">
         <v>46</v>
@@ -634,16 +634,16 @@
         <v>text/html</v>
       </c>
       <c r="E2">
-        <v>14884</v>
+        <v>14895</v>
       </c>
       <c r="F2">
-        <v>74290</v>
+        <v>74419</v>
       </c>
       <c r="G2">
-        <v>0.004328460691999999</v>
+        <v>0.0043316596349999995</v>
       </c>
       <c r="H2">
-        <v>0.0057017835576</v>
+        <v>0.0057059974529999995</v>
       </c>
     </row>
     <row r="3">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="str">
-        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/1761192759450/sitevision-responsive-grids.css?gridConfigs=651.3b84deaf195b246453113248_FLUID_GRID&amp;pushPull=false</v>
+        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/1763010998949/sitevision-responsive-grids.css?gridConfigs=651.3b84deaf195b246453113248_FLUID_GRID&amp;pushPull=false</v>
       </c>
       <c r="C3" t="str">
         <v>Stylesheet</v>
@@ -677,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="str">
-        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/51916/5331/print/SiteVision.css</v>
+        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/0/2688/print/SiteVision.css</v>
       </c>
       <c r="C4" t="str">
         <v>Stylesheet</v>
@@ -686,16 +686,16 @@
         <v>text/css</v>
       </c>
       <c r="E4">
-        <v>6385</v>
+        <v>6372</v>
       </c>
       <c r="F4">
-        <v>126319</v>
+        <v>126315</v>
       </c>
       <c r="G4">
-        <v>0.0018568410049999997</v>
+        <v>0.001853060436</v>
       </c>
       <c r="H4">
-        <v>0.002445974739</v>
+        <v>0.0024409946808000003</v>
       </c>
     </row>
     <row r="5">
@@ -703,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="str">
-        <v>https://www.lunner.kommune.no/sitevision/system-resource/c5a7128bfdb3cfc20145efe038a97e77f0563f1309026071e4089cd19ff1d5e3/css/portlets.css</v>
+        <v>https://www.lunner.kommune.no/sitevision/system-resource/18b33493fcb0e46f4807fab33b5d2467901aec31ec35153b784f7a2cb817ac86/css/portlets.css</v>
       </c>
       <c r="C5" t="str">
         <v>Stylesheet</v>
@@ -712,16 +712,16 @@
         <v>text/css</v>
       </c>
       <c r="E5">
-        <v>7023</v>
+        <v>7236</v>
       </c>
       <c r="F5">
-        <v>40322</v>
+        <v>42372</v>
       </c>
       <c r="G5">
-        <v>0.0020423796989999994</v>
+        <v>0.0021043228679999996</v>
       </c>
       <c r="H5">
-        <v>0.0026903806722</v>
+        <v>0.0027719770104000004</v>
       </c>
     </row>
     <row r="6">
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="str">
-        <v>https://www.lunner.kommune.no/sitevision/system-resource/c5a7128bfdb3cfc20145efe038a97e77f0563f1309026071e4089cd19ff1d5e3/envision/envision.css</v>
+        <v>https://www.lunner.kommune.no/sitevision/system-resource/18b33493fcb0e46f4807fab33b5d2467901aec31ec35153b784f7a2cb817ac86/envision/envision.css</v>
       </c>
       <c r="C6" t="str">
         <v>Stylesheet</v>
@@ -738,16 +738,16 @@
         <v>text/css</v>
       </c>
       <c r="E6">
-        <v>22078</v>
+        <v>22101</v>
       </c>
       <c r="F6">
-        <v>255322</v>
+        <v>255462</v>
       </c>
       <c r="G6">
-        <v>0.006420569413999999</v>
+        <v>0.006427258112999999</v>
       </c>
       <c r="H6">
-        <v>0.0084576711492</v>
+        <v>0.0084664820214</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="str">
-        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/91.3b84deaf195b246453113283/1761192965416/0/sv-template-asset.css</v>
+        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/91.3b84deaf195b246453113283/1763011193473/0/sv-template-asset.css</v>
       </c>
       <c r="C7" t="str">
         <v>Stylesheet</v>
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="str">
-        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/1761192965291/sitevision-spacing.css</v>
+        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/1763011193258/sitevision-spacing.css</v>
       </c>
       <c r="C8" t="str">
         <v>Stylesheet</v>
@@ -963,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="str">
-        <v>https://www.lunner.kommune.no/sitevision/system-resource/c5a7128bfdb3cfc20145efe038a97e77f0563f1309026071e4089cd19ff1d5e3/js/jquery.js</v>
+        <v>https://www.lunner.kommune.no/sitevision/system-resource/18b33493fcb0e46f4807fab33b5d2467901aec31ec35153b784f7a2cb817ac86/js/jquery.js</v>
       </c>
       <c r="C15" t="str">
         <v>Script</v>
@@ -989,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="str">
-        <v>https://www.lunner.kommune.no/sitevision/system-resource/c5a7128bfdb3cfc20145efe038a97e77f0563f1309026071e4089cd19ff1d5e3/envision/envision.js</v>
+        <v>https://www.lunner.kommune.no/sitevision/system-resource/18b33493fcb0e46f4807fab33b5d2467901aec31ec35153b784f7a2cb817ac86/envision/envision.js</v>
       </c>
       <c r="C16" t="str">
         <v>Script</v>
@@ -998,16 +998,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E16">
-        <v>17895</v>
+        <v>17837</v>
       </c>
       <c r="F16">
-        <v>71690</v>
+        <v>71762</v>
       </c>
       <c r="G16">
-        <v>0.0052040986349999995</v>
+        <v>0.005187231480999999</v>
       </c>
       <c r="H16">
-        <v>0.006855241653</v>
+        <v>0.006833022931799999</v>
       </c>
     </row>
     <row r="17">
@@ -1015,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="str">
-        <v>https://www.lunner.kommune.no/sitevision/system-resource/c5a7128bfdb3cfc20145efe038a97e77f0563f1309026071e4089cd19ff1d5e3/js/utils.js</v>
+        <v>https://www.lunner.kommune.no/sitevision/system-resource/18b33493fcb0e46f4807fab33b5d2467901aec31ec35153b784f7a2cb817ac86/js/utils.js</v>
       </c>
       <c r="C17" t="str">
         <v>Script</v>
@@ -1024,16 +1024,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E17">
-        <v>18832</v>
+        <v>18673</v>
       </c>
       <c r="F17">
-        <v>58222</v>
+        <v>58086</v>
       </c>
       <c r="G17">
-        <v>0.005476590415999999</v>
+        <v>0.005430351149</v>
       </c>
       <c r="H17">
-        <v>0.0072141889247999995</v>
+        <v>0.007153278982200001</v>
       </c>
     </row>
     <row r="18">
@@ -1041,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="str">
-        <v>https://www.lunner.kommune.no/sitevision/system-resource/c5a7128bfdb3cfc20145efe038a97e77f0563f1309026071e4089cd19ff1d5e3/js/portlets.js</v>
+        <v>https://www.lunner.kommune.no/sitevision/system-resource/18b33493fcb0e46f4807fab33b5d2467901aec31ec35153b784f7a2cb817ac86/js/portlets.js</v>
       </c>
       <c r="C18" t="str">
         <v>Script</v>
@@ -1050,16 +1050,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E18">
-        <v>39317</v>
+        <v>38892</v>
       </c>
       <c r="F18">
-        <v>152113</v>
+        <v>149358</v>
       </c>
       <c r="G18">
-        <v>0.011433894720999998</v>
+        <v>0.011310299195999999</v>
       </c>
       <c r="H18">
-        <v>0.015061611403800003</v>
+        <v>0.014898801808799999</v>
       </c>
     </row>
     <row r="19">
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="str">
-        <v>https://www.lunner.kommune.no/images/200.2eacad2219a0f6ddb02a152/1762754046280/Folkehelseunders%C3%B8kelsen%202025.jpg</v>
+        <v>https://www.lunner.kommune.no/images/200.205d557e19a7ba4e8d145b/1763045970481/Arild%20Hammerhaug.jpg</v>
       </c>
       <c r="C21" t="str">
         <v>Image</v>
@@ -1128,16 +1128,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E21">
-        <v>61172</v>
+        <v>32414</v>
       </c>
       <c r="F21">
-        <v>60883</v>
+        <v>32125</v>
       </c>
       <c r="G21">
-        <v>0.017789612835999998</v>
+        <v>0.009426412581999999</v>
       </c>
       <c r="H21">
-        <v>0.0234338554008</v>
+        <v>0.0124172004996</v>
       </c>
     </row>
     <row r="22">
@@ -1145,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="str">
-        <v>https://www.lunner.kommune.no/images/200.6bd81ce219a0f6105ac8c77/1762601945794/Utslipp%20Harestuvannet.jpg</v>
+        <v>https://www.lunner.kommune.no/images/200.2eacad2219a0f6ddb02a152/1762754046280/Folkehelseunders%C3%B8kelsen%202025.jpg</v>
       </c>
       <c r="C22" t="str">
         <v>Image</v>
@@ -1154,16 +1154,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E22">
-        <v>138094</v>
+        <v>61172</v>
       </c>
       <c r="F22">
-        <v>137804</v>
+        <v>60883</v>
       </c>
       <c r="G22">
-        <v>0.040159530421999996</v>
+        <v>0.017789612835999998</v>
       </c>
       <c r="H22">
-        <v>0.05290124285160001</v>
+        <v>0.0234338554008</v>
       </c>
     </row>
     <row r="23">
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="str">
-        <v>https://www.lunner.kommune.no/images/200.4006d57419897754ab712cc/1755161988986/Gutt%20med%20skolesekk.%20Crop2.jpg</v>
+        <v>https://www.lunner.kommune.no/images/200.6bd81ce219a0f6105ac8c77/1762601945794/Utslipp%20Harestuvannet.jpg</v>
       </c>
       <c r="C23" t="str">
         <v>Image</v>
@@ -1180,16 +1180,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E23">
-        <v>64901</v>
+        <v>138094</v>
       </c>
       <c r="F23">
-        <v>64612</v>
+        <v>137804</v>
       </c>
       <c r="G23">
-        <v>0.018874054512999998</v>
+        <v>0.040159530421999996</v>
       </c>
       <c r="H23">
-        <v>0.024862365941399997</v>
+        <v>0.05290124285160001</v>
       </c>
     </row>
     <row r="24">
@@ -1197,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="str">
-        <v>https://www.lunner.kommune.no/images/200.368d0ee119a0f52dd16882c/1762492536806/Marineth%20p%C3%A5%20kontoret%20Crop.jpg</v>
+        <v>https://www.lunner.kommune.no/images/200.4006d57419897754ab712cc/1755161988986/Gutt%20med%20skolesekk.%20Crop2.jpg</v>
       </c>
       <c r="C24" t="str">
         <v>Image</v>
@@ -1206,16 +1206,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E24">
-        <v>122372</v>
+        <v>64901</v>
       </c>
       <c r="F24">
-        <v>122082</v>
+        <v>64612</v>
       </c>
       <c r="G24">
-        <v>0.035587368435999994</v>
+        <v>0.018874054512999998</v>
       </c>
       <c r="H24">
-        <v>0.04687843708080001</v>
+        <v>0.024862365941399997</v>
       </c>
     </row>
     <row r="25">
@@ -1223,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="str">
-        <v>https://www.lunner.kommune.no/images/200.2fc8c13919a0f44c70bacce/1762430143729/Arild%20p%C3%A5%20kontoret.JPEG</v>
+        <v>https://www.lunner.kommune.no/images/200.368d0ee119a0f52dd16882c/1762492536806/Marineth%20p%C3%A5%20kontoret%20Crop.jpg</v>
       </c>
       <c r="C25" t="str">
         <v>Image</v>
@@ -1232,16 +1232,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E25">
-        <v>116657</v>
+        <v>122372</v>
       </c>
       <c r="F25">
-        <v>116367</v>
+        <v>122082</v>
       </c>
       <c r="G25">
-        <v>0.03392537214099999</v>
+        <v>0.035587368435999994</v>
       </c>
       <c r="H25">
-        <v>0.044689126879800006</v>
+        <v>0.04687843708080001</v>
       </c>
     </row>
     <row r="26">
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="str">
-        <v>https://www.lunner.kommune.no/images/200.6bd81ce219a0f6105ac6a03/1762254786312/Hege%20Torp%20crop.jpg</v>
+        <v>https://www.lunner.kommune.no/images/200.2fc8c13919a0f44c70bacce/1762430143729/Arild%20p%C3%A5%20kontoret.JPEG</v>
       </c>
       <c r="C26" t="str">
         <v>Image</v>
@@ -1258,16 +1258,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E26">
-        <v>111682</v>
+        <v>116657</v>
       </c>
       <c r="F26">
-        <v>111392</v>
+        <v>116367</v>
       </c>
       <c r="G26">
-        <v>0.032478577466</v>
+        <v>0.03392537214099999</v>
       </c>
       <c r="H26">
-        <v>0.0427832969148</v>
+        <v>0.044689126879800006</v>
       </c>
     </row>
     <row r="27">
@@ -1353,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="str">
-        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/91.3b84deaf195b246453113283/1761192965425/BODY/0/sv-template-asset.js</v>
+        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/91.3b84deaf195b246453113283/1763011193483/BODY/0/sv-template-asset.js</v>
       </c>
       <c r="C30" t="str">
         <v>Script</v>
@@ -1379,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="str">
-        <v>https://www.lunner.kommune.no/sitevision/system-resource/c5a7128bfdb3cfc20145efe038a97e77f0563f1309026071e4089cd19ff1d5e3/js/webAppExternals/react_18_3.js</v>
+        <v>https://www.lunner.kommune.no/sitevision/system-resource/18b33493fcb0e46f4807fab33b5d2467901aec31ec35153b784f7a2cb817ac86/js/webAppExternals/react_18_3.js</v>
       </c>
       <c r="C31" t="str">
         <v>Script</v>
@@ -1414,16 +1414,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E32">
-        <v>41219</v>
+        <v>41227</v>
       </c>
       <c r="F32">
         <v>138254</v>
       </c>
       <c r="G32">
-        <v>0.011987021046999998</v>
+        <v>0.011989347550999998</v>
       </c>
       <c r="H32">
-        <v>0.015790232226600004</v>
+        <v>0.015793296877799998</v>
       </c>
     </row>
     <row r="33">
@@ -1466,16 +1466,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E34">
-        <v>24570</v>
+        <v>24571</v>
       </c>
       <c r="F34">
         <v>74871</v>
       </c>
       <c r="G34">
-        <v>0.00714527541</v>
+        <v>0.0071455662229999994</v>
       </c>
       <c r="H34">
-        <v>0.009412309998000001</v>
+        <v>0.009412693079400002</v>
       </c>
     </row>
     <row r="35">
@@ -1492,16 +1492,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E35">
-        <v>22977</v>
+        <v>22978</v>
       </c>
       <c r="F35">
         <v>69596</v>
       </c>
       <c r="G35">
-        <v>0.006682010300999999</v>
+        <v>0.006682301113999999</v>
       </c>
       <c r="H35">
-        <v>0.0088020613278</v>
+        <v>0.0088024444092</v>
       </c>
     </row>
     <row r="36">
@@ -1509,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="str">
-        <v>https://www.lunner.kommune.no/sitevision/system-resource/c5a7128bfdb3cfc20145efe038a97e77f0563f1309026071e4089cd19ff1d5e3/webapps/webapp_sdk-legacy.js</v>
+        <v>https://www.lunner.kommune.no/sitevision/system-resource/18b33493fcb0e46f4807fab33b5d2467901aec31ec35153b784f7a2cb817ac86/webapps/webapp_sdk-legacy.js</v>
       </c>
       <c r="C36" t="str">
         <v>Script</v>
@@ -1743,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="str">
-        <v>https://www.lunner.kommune.no/sitevision/system-resource/c5a7128bfdb3cfc20145efe038a97e77f0563f1309026071e4089cd19ff1d5e3/envision/popper-1c40e6672ac9d88ded8c.js</v>
+        <v>https://www.lunner.kommune.no/sitevision/system-resource/18b33493fcb0e46f4807fab33b5d2467901aec31ec35153b784f7a2cb817ac86/envision/popper-7d0017b4b0eee8522ac7.js</v>
       </c>
       <c r="C45" t="str">
         <v>Script</v>
@@ -1752,16 +1752,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E45">
-        <v>6837</v>
+        <v>6812</v>
       </c>
       <c r="F45">
-        <v>19616</v>
+        <v>19517</v>
       </c>
       <c r="G45">
-        <v>0.0019882884809999998</v>
+        <v>0.001981018156</v>
       </c>
       <c r="H45">
-        <v>0.0026191275318</v>
+        <v>0.0026095504968</v>
       </c>
     </row>
     <row r="46">
@@ -1827,16 +1827,16 @@
         <v>text/html</v>
       </c>
       <c r="E48">
-        <v>14883</v>
+        <v>14895</v>
       </c>
       <c r="F48">
-        <v>74290</v>
+        <v>74419</v>
       </c>
       <c r="G48">
-        <v>0.004328169878999999</v>
+        <v>0.0043316596349999995</v>
       </c>
       <c r="H48">
-        <v>0.005701400476199998</v>
+        <v>0.0057059974529999995</v>
       </c>
     </row>
     <row r="49">
@@ -1844,7 +1844,7 @@
         <v>2</v>
       </c>
       <c r="B49" t="str">
-        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/1761192759450/sitevision-responsive-grids.css?gridConfigs=651.3b84deaf195b246453113248_FLUID_GRID&amp;pushPull=false</v>
+        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/1763012658279/sitevision-responsive-grids.css?gridConfigs=651.3b84deaf195b246453113248_FLUID_GRID&amp;pushPull=false</v>
       </c>
       <c r="C49" t="str">
         <v>Stylesheet</v>
@@ -1870,7 +1870,7 @@
         <v>2</v>
       </c>
       <c r="B50" t="str">
-        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/51916/5331/print/SiteVision.css</v>
+        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/0/9088/print/SiteVision.css</v>
       </c>
       <c r="C50" t="str">
         <v>Stylesheet</v>
@@ -1879,16 +1879,16 @@
         <v>text/css</v>
       </c>
       <c r="E50">
-        <v>6385</v>
+        <v>6372</v>
       </c>
       <c r="F50">
-        <v>126319</v>
+        <v>126315</v>
       </c>
       <c r="G50">
-        <v>0.0018568410049999997</v>
+        <v>0.001853060436</v>
       </c>
       <c r="H50">
-        <v>0.002445974739</v>
+        <v>0.0024409946808000003</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         <v>2</v>
       </c>
       <c r="B51" t="str">
-        <v>https://www.lunner.kommune.no/sitevision/system-resource/c5a7128bfdb3cfc20145efe038a97e77f0563f1309026071e4089cd19ff1d5e3/css/portlets.css</v>
+        <v>https://www.lunner.kommune.no/sitevision/system-resource/18b33493fcb0e46f4807fab33b5d2467901aec31ec35153b784f7a2cb817ac86/css/portlets.css</v>
       </c>
       <c r="C51" t="str">
         <v>Stylesheet</v>
@@ -1905,16 +1905,16 @@
         <v>text/css</v>
       </c>
       <c r="E51">
-        <v>7023</v>
+        <v>7236</v>
       </c>
       <c r="F51">
-        <v>40322</v>
+        <v>42372</v>
       </c>
       <c r="G51">
-        <v>0.0020423796989999994</v>
+        <v>0.0021043228679999996</v>
       </c>
       <c r="H51">
-        <v>0.0026903806722</v>
+        <v>0.0027719770104000004</v>
       </c>
     </row>
     <row r="52">
@@ -1922,7 +1922,7 @@
         <v>2</v>
       </c>
       <c r="B52" t="str">
-        <v>https://www.lunner.kommune.no/sitevision/system-resource/c5a7128bfdb3cfc20145efe038a97e77f0563f1309026071e4089cd19ff1d5e3/envision/envision.css</v>
+        <v>https://www.lunner.kommune.no/sitevision/system-resource/18b33493fcb0e46f4807fab33b5d2467901aec31ec35153b784f7a2cb817ac86/envision/envision.css</v>
       </c>
       <c r="C52" t="str">
         <v>Stylesheet</v>
@@ -1931,16 +1931,16 @@
         <v>text/css</v>
       </c>
       <c r="E52">
-        <v>22078</v>
+        <v>22101</v>
       </c>
       <c r="F52">
-        <v>255322</v>
+        <v>255462</v>
       </c>
       <c r="G52">
-        <v>0.006420569413999999</v>
+        <v>0.006427258112999999</v>
       </c>
       <c r="H52">
-        <v>0.0084576711492</v>
+        <v>0.0084664820214</v>
       </c>
     </row>
     <row r="53">
@@ -1948,7 +1948,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="str">
-        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/91.3b84deaf195b246453113283/1761192965416/0/sv-template-asset.css</v>
+        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/91.3b84deaf195b246453113283/1763012866781/0/sv-template-asset.css</v>
       </c>
       <c r="C53" t="str">
         <v>Stylesheet</v>
@@ -1974,7 +1974,7 @@
         <v>2</v>
       </c>
       <c r="B54" t="str">
-        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/1761192965291/sitevision-spacing.css</v>
+        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/1763012866620/sitevision-spacing.css</v>
       </c>
       <c r="C54" t="str">
         <v>Stylesheet</v>
@@ -2156,7 +2156,7 @@
         <v>2</v>
       </c>
       <c r="B61" t="str">
-        <v>https://www.lunner.kommune.no/sitevision/system-resource/c5a7128bfdb3cfc20145efe038a97e77f0563f1309026071e4089cd19ff1d5e3/js/jquery.js</v>
+        <v>https://www.lunner.kommune.no/sitevision/system-resource/18b33493fcb0e46f4807fab33b5d2467901aec31ec35153b784f7a2cb817ac86/js/jquery.js</v>
       </c>
       <c r="C61" t="str">
         <v>Script</v>
@@ -2182,7 +2182,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="str">
-        <v>https://www.lunner.kommune.no/sitevision/system-resource/c5a7128bfdb3cfc20145efe038a97e77f0563f1309026071e4089cd19ff1d5e3/envision/envision.js</v>
+        <v>https://www.lunner.kommune.no/sitevision/system-resource/18b33493fcb0e46f4807fab33b5d2467901aec31ec35153b784f7a2cb817ac86/envision/envision.js</v>
       </c>
       <c r="C62" t="str">
         <v>Script</v>
@@ -2191,16 +2191,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E62">
-        <v>17895</v>
+        <v>17837</v>
       </c>
       <c r="F62">
-        <v>71690</v>
+        <v>71762</v>
       </c>
       <c r="G62">
-        <v>0.0052040986349999995</v>
+        <v>0.005187231480999999</v>
       </c>
       <c r="H62">
-        <v>0.006855241653</v>
+        <v>0.006833022931799999</v>
       </c>
     </row>
     <row r="63">
@@ -2208,7 +2208,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="str">
-        <v>https://www.lunner.kommune.no/sitevision/system-resource/c5a7128bfdb3cfc20145efe038a97e77f0563f1309026071e4089cd19ff1d5e3/js/utils.js</v>
+        <v>https://www.lunner.kommune.no/sitevision/system-resource/18b33493fcb0e46f4807fab33b5d2467901aec31ec35153b784f7a2cb817ac86/js/utils.js</v>
       </c>
       <c r="C63" t="str">
         <v>Script</v>
@@ -2217,16 +2217,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E63">
-        <v>18832</v>
+        <v>18673</v>
       </c>
       <c r="F63">
-        <v>58222</v>
+        <v>58086</v>
       </c>
       <c r="G63">
-        <v>0.005476590415999999</v>
+        <v>0.005430351149</v>
       </c>
       <c r="H63">
-        <v>0.0072141889247999995</v>
+        <v>0.007153278982200001</v>
       </c>
     </row>
     <row r="64">
@@ -2234,7 +2234,7 @@
         <v>2</v>
       </c>
       <c r="B64" t="str">
-        <v>https://www.lunner.kommune.no/sitevision/system-resource/c5a7128bfdb3cfc20145efe038a97e77f0563f1309026071e4089cd19ff1d5e3/js/portlets.js</v>
+        <v>https://www.lunner.kommune.no/sitevision/system-resource/18b33493fcb0e46f4807fab33b5d2467901aec31ec35153b784f7a2cb817ac86/js/portlets.js</v>
       </c>
       <c r="C64" t="str">
         <v>Script</v>
@@ -2243,16 +2243,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E64">
-        <v>39317</v>
+        <v>38892</v>
       </c>
       <c r="F64">
-        <v>152113</v>
+        <v>149358</v>
       </c>
       <c r="G64">
-        <v>0.011433894720999998</v>
+        <v>0.011310299195999999</v>
       </c>
       <c r="H64">
-        <v>0.015061611403800003</v>
+        <v>0.014898801808799999</v>
       </c>
     </row>
     <row r="65">
@@ -2312,7 +2312,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="str">
-        <v>https://www.lunner.kommune.no/images/200.2eacad2219a0f6ddb02a152/1762754046280/Folkehelseunders%C3%B8kelsen%202025.jpg</v>
+        <v>https://www.lunner.kommune.no/images/200.205d557e19a7ba4e8d145b/1763045970481/Arild%20Hammerhaug.jpg</v>
       </c>
       <c r="C67" t="str">
         <v>Image</v>
@@ -2321,16 +2321,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E67">
-        <v>61172</v>
+        <v>32414</v>
       </c>
       <c r="F67">
-        <v>60883</v>
+        <v>32125</v>
       </c>
       <c r="G67">
-        <v>0.017789612835999998</v>
+        <v>0.009426412581999999</v>
       </c>
       <c r="H67">
-        <v>0.0234338554008</v>
+        <v>0.0124172004996</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="str">
-        <v>https://www.lunner.kommune.no/images/200.6bd81ce219a0f6105ac8c77/1762601945794/Utslipp%20Harestuvannet.jpg</v>
+        <v>https://www.lunner.kommune.no/images/200.2eacad2219a0f6ddb02a152/1762754046280/Folkehelseunders%C3%B8kelsen%202025.jpg</v>
       </c>
       <c r="C68" t="str">
         <v>Image</v>
@@ -2347,16 +2347,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E68">
-        <v>138094</v>
+        <v>61172</v>
       </c>
       <c r="F68">
-        <v>137804</v>
+        <v>60883</v>
       </c>
       <c r="G68">
-        <v>0.040159530421999996</v>
+        <v>0.017789612835999998</v>
       </c>
       <c r="H68">
-        <v>0.05290124285160001</v>
+        <v>0.0234338554008</v>
       </c>
     </row>
     <row r="69">
@@ -2364,7 +2364,7 @@
         <v>2</v>
       </c>
       <c r="B69" t="str">
-        <v>https://www.lunner.kommune.no/images/200.4006d57419897754ab712cc/1755161988986/Gutt%20med%20skolesekk.%20Crop2.jpg</v>
+        <v>https://www.lunner.kommune.no/images/200.6bd81ce219a0f6105ac8c77/1762601945794/Utslipp%20Harestuvannet.jpg</v>
       </c>
       <c r="C69" t="str">
         <v>Image</v>
@@ -2373,16 +2373,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E69">
-        <v>64901</v>
+        <v>138094</v>
       </c>
       <c r="F69">
-        <v>64612</v>
+        <v>137804</v>
       </c>
       <c r="G69">
-        <v>0.018874054512999998</v>
+        <v>0.040159530421999996</v>
       </c>
       <c r="H69">
-        <v>0.024862365941399997</v>
+        <v>0.05290124285160001</v>
       </c>
     </row>
     <row r="70">
@@ -2390,7 +2390,7 @@
         <v>2</v>
       </c>
       <c r="B70" t="str">
-        <v>https://www.lunner.kommune.no/images/200.368d0ee119a0f52dd16882c/1762492536806/Marineth%20p%C3%A5%20kontoret%20Crop.jpg</v>
+        <v>https://www.lunner.kommune.no/images/200.4006d57419897754ab712cc/1755161988986/Gutt%20med%20skolesekk.%20Crop2.jpg</v>
       </c>
       <c r="C70" t="str">
         <v>Image</v>
@@ -2399,16 +2399,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E70">
-        <v>122372</v>
+        <v>64901</v>
       </c>
       <c r="F70">
-        <v>122082</v>
+        <v>64612</v>
       </c>
       <c r="G70">
-        <v>0.035587368435999994</v>
+        <v>0.018874054512999998</v>
       </c>
       <c r="H70">
-        <v>0.04687843708080001</v>
+        <v>0.024862365941399997</v>
       </c>
     </row>
     <row r="71">
@@ -2416,7 +2416,7 @@
         <v>2</v>
       </c>
       <c r="B71" t="str">
-        <v>https://www.lunner.kommune.no/images/200.2fc8c13919a0f44c70bacce/1762430143729/Arild%20p%C3%A5%20kontoret.JPEG</v>
+        <v>https://www.lunner.kommune.no/images/200.368d0ee119a0f52dd16882c/1762492536806/Marineth%20p%C3%A5%20kontoret%20Crop.jpg</v>
       </c>
       <c r="C71" t="str">
         <v>Image</v>
@@ -2425,16 +2425,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E71">
-        <v>116657</v>
+        <v>122372</v>
       </c>
       <c r="F71">
-        <v>116367</v>
+        <v>122082</v>
       </c>
       <c r="G71">
-        <v>0.03392537214099999</v>
+        <v>0.035587368435999994</v>
       </c>
       <c r="H71">
-        <v>0.044689126879800006</v>
+        <v>0.04687843708080001</v>
       </c>
     </row>
     <row r="72">
@@ -2442,7 +2442,7 @@
         <v>2</v>
       </c>
       <c r="B72" t="str">
-        <v>https://www.lunner.kommune.no/images/200.6bd81ce219a0f6105ac6a03/1762254786312/Hege%20Torp%20crop.jpg</v>
+        <v>https://www.lunner.kommune.no/images/200.2fc8c13919a0f44c70bacce/1762430143729/Arild%20p%C3%A5%20kontoret.JPEG</v>
       </c>
       <c r="C72" t="str">
         <v>Image</v>
@@ -2451,16 +2451,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E72">
-        <v>111682</v>
+        <v>116657</v>
       </c>
       <c r="F72">
-        <v>111392</v>
+        <v>116367</v>
       </c>
       <c r="G72">
-        <v>0.032478577466</v>
+        <v>0.03392537214099999</v>
       </c>
       <c r="H72">
-        <v>0.0427832969148</v>
+        <v>0.044689126879800006</v>
       </c>
     </row>
     <row r="73">
@@ -2546,7 +2546,7 @@
         <v>2</v>
       </c>
       <c r="B76" t="str">
-        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/91.3b84deaf195b246453113283/1761192965425/BODY/0/sv-template-asset.js</v>
+        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/91.3b84deaf195b246453113283/1763012866789/BODY/0/sv-template-asset.js</v>
       </c>
       <c r="C76" t="str">
         <v>Script</v>
@@ -2572,7 +2572,7 @@
         <v>2</v>
       </c>
       <c r="B77" t="str">
-        <v>https://www.lunner.kommune.no/sitevision/system-resource/c5a7128bfdb3cfc20145efe038a97e77f0563f1309026071e4089cd19ff1d5e3/js/webAppExternals/react_18_3.js</v>
+        <v>https://www.lunner.kommune.no/sitevision/system-resource/18b33493fcb0e46f4807fab33b5d2467901aec31ec35153b784f7a2cb817ac86/js/webAppExternals/react_18_3.js</v>
       </c>
       <c r="C77" t="str">
         <v>Script</v>
@@ -2702,7 +2702,7 @@
         <v>2</v>
       </c>
       <c r="B82" t="str">
-        <v>https://www.lunner.kommune.no/sitevision/system-resource/c5a7128bfdb3cfc20145efe038a97e77f0563f1309026071e4089cd19ff1d5e3/webapps/webapp_sdk-legacy.js</v>
+        <v>https://www.lunner.kommune.no/sitevision/system-resource/18b33493fcb0e46f4807fab33b5d2467901aec31ec35153b784f7a2cb817ac86/webapps/webapp_sdk-legacy.js</v>
       </c>
       <c r="C82" t="str">
         <v>Script</v>
@@ -2858,25 +2858,25 @@
         <v>2</v>
       </c>
       <c r="B88" t="str">
-        <v>https://www.lunner.kommune.no/appresource/2.3b84deaf195b24645311301a/12.3b84deaf195b246453114ea2/menuitems?svAjaxReqParam=ajax</v>
+        <v>https://www.lunner.kommune.no/sitevision/system-resource/18b33493fcb0e46f4807fab33b5d2467901aec31ec35153b784f7a2cb817ac86/envision/popper-7d0017b4b0eee8522ac7.js</v>
       </c>
       <c r="C88" t="str">
-        <v>XHR</v>
+        <v>Script</v>
       </c>
       <c r="D88" t="str">
-        <v>application/json</v>
+        <v>text/javascript</v>
       </c>
       <c r="E88">
-        <v>686</v>
+        <v>6812</v>
       </c>
       <c r="F88">
-        <v>1929</v>
+        <v>19517</v>
       </c>
       <c r="G88">
-        <v>0.00019949771799999995</v>
+        <v>0.001981018156</v>
       </c>
       <c r="H88">
-        <v>0.0002627938404</v>
+        <v>0.0026095504968</v>
       </c>
     </row>
     <row r="89">
@@ -2884,7 +2884,7 @@
         <v>2</v>
       </c>
       <c r="B89" t="str">
-        <v>https://www.lunner.kommune.no/appresource/2.3b84deaf195b24645311301a/12.3b84deaf195b246453114aec/menuitems?svAjaxReqParam=ajax</v>
+        <v>https://www.lunner.kommune.no/appresource/2.3b84deaf195b24645311301a/12.3b84deaf195b246453114ea2/menuitems?svAjaxReqParam=ajax</v>
       </c>
       <c r="C89" t="str">
         <v>XHR</v>
@@ -2893,16 +2893,16 @@
         <v>application/json</v>
       </c>
       <c r="E89">
-        <v>474</v>
+        <v>686</v>
       </c>
       <c r="F89">
-        <v>479</v>
+        <v>1929</v>
       </c>
       <c r="G89">
-        <v>0.00013784536199999998</v>
+        <v>0.00019949771799999995</v>
       </c>
       <c r="H89">
-        <v>0.0001815805836</v>
+        <v>0.0002627938404</v>
       </c>
     </row>
     <row r="90">
@@ -2910,7 +2910,7 @@
         <v>2</v>
       </c>
       <c r="B90" t="str">
-        <v>https://www.lunner.kommune.no/appresource/2.3b84deaf195b24645311301a/12.3b84deaf195b246453113290/menuitems?svAjaxReqParam=ajax</v>
+        <v>https://www.lunner.kommune.no/appresource/2.3b84deaf195b24645311301a/12.3b84deaf195b246453114aec/menuitems?svAjaxReqParam=ajax</v>
       </c>
       <c r="C90" t="str">
         <v>XHR</v>
@@ -2919,16 +2919,16 @@
         <v>application/json</v>
       </c>
       <c r="E90">
-        <v>554</v>
+        <v>474</v>
       </c>
       <c r="F90">
-        <v>944</v>
+        <v>479</v>
       </c>
       <c r="G90">
-        <v>0.00016111040199999997</v>
+        <v>0.00013784536199999998</v>
       </c>
       <c r="H90">
-        <v>0.0002122270956</v>
+        <v>0.0001815805836</v>
       </c>
     </row>
     <row r="91">
@@ -2936,25 +2936,25 @@
         <v>2</v>
       </c>
       <c r="B91" t="str">
-        <v>https://www.lunner.kommune.no/sitevision/system-resource/c5a7128bfdb3cfc20145efe038a97e77f0563f1309026071e4089cd19ff1d5e3/envision/popper-1c40e6672ac9d88ded8c.js</v>
+        <v>https://www.lunner.kommune.no/appresource/2.3b84deaf195b24645311301a/12.3b84deaf195b246453113290/menuitems?svAjaxReqParam=ajax</v>
       </c>
       <c r="C91" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D91" t="str">
-        <v>text/javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E91">
-        <v>6837</v>
+        <v>554</v>
       </c>
       <c r="F91">
-        <v>19616</v>
+        <v>944</v>
       </c>
       <c r="G91">
-        <v>0.0019882884809999998</v>
+        <v>0.00016111040199999997</v>
       </c>
       <c r="H91">
-        <v>0.0026191275318</v>
+        <v>0.0002122270956</v>
       </c>
     </row>
     <row r="92">
@@ -3020,16 +3020,16 @@
         <v>text/html</v>
       </c>
       <c r="E94">
-        <v>14885</v>
+        <v>14894</v>
       </c>
       <c r="F94">
-        <v>74290</v>
+        <v>74419</v>
       </c>
       <c r="G94">
-        <v>0.004328751505</v>
+        <v>0.004331368822</v>
       </c>
       <c r="H94">
-        <v>0.005702166639000001</v>
+        <v>0.0057056143716</v>
       </c>
     </row>
     <row r="95">
@@ -3037,7 +3037,7 @@
         <v>3</v>
       </c>
       <c r="B95" t="str">
-        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/1761195451343/sitevision-responsive-grids.css?gridConfigs=651.3b84deaf195b246453113248_FLUID_GRID&amp;pushPull=false</v>
+        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/1763010998949/sitevision-responsive-grids.css?gridConfigs=651.3b84deaf195b246453113248_FLUID_GRID&amp;pushPull=false</v>
       </c>
       <c r="C95" t="str">
         <v>Stylesheet</v>
@@ -3063,7 +3063,7 @@
         <v>3</v>
       </c>
       <c r="B96" t="str">
-        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/52738/3926/print/SiteVision.css</v>
+        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/0/2688/print/SiteVision.css</v>
       </c>
       <c r="C96" t="str">
         <v>Stylesheet</v>
@@ -3072,16 +3072,16 @@
         <v>text/css</v>
       </c>
       <c r="E96">
-        <v>6385</v>
+        <v>6372</v>
       </c>
       <c r="F96">
-        <v>126319</v>
+        <v>126315</v>
       </c>
       <c r="G96">
-        <v>0.0018568410049999997</v>
+        <v>0.001853060436</v>
       </c>
       <c r="H96">
-        <v>0.002445974739</v>
+        <v>0.0024409946808000003</v>
       </c>
     </row>
     <row r="97">
@@ -3089,7 +3089,7 @@
         <v>3</v>
       </c>
       <c r="B97" t="str">
-        <v>https://www.lunner.kommune.no/sitevision/system-resource/c5a7128bfdb3cfc20145efe038a97e77f0563f1309026071e4089cd19ff1d5e3/css/portlets.css</v>
+        <v>https://www.lunner.kommune.no/sitevision/system-resource/18b33493fcb0e46f4807fab33b5d2467901aec31ec35153b784f7a2cb817ac86/css/portlets.css</v>
       </c>
       <c r="C97" t="str">
         <v>Stylesheet</v>
@@ -3098,16 +3098,16 @@
         <v>text/css</v>
       </c>
       <c r="E97">
-        <v>7023</v>
+        <v>7236</v>
       </c>
       <c r="F97">
-        <v>40322</v>
+        <v>42372</v>
       </c>
       <c r="G97">
-        <v>0.0020423796989999994</v>
+        <v>0.0021043228679999996</v>
       </c>
       <c r="H97">
-        <v>0.0026903806722</v>
+        <v>0.0027719770104000004</v>
       </c>
     </row>
     <row r="98">
@@ -3115,7 +3115,7 @@
         <v>3</v>
       </c>
       <c r="B98" t="str">
-        <v>https://www.lunner.kommune.no/sitevision/system-resource/c5a7128bfdb3cfc20145efe038a97e77f0563f1309026071e4089cd19ff1d5e3/envision/envision.css</v>
+        <v>https://www.lunner.kommune.no/sitevision/system-resource/18b33493fcb0e46f4807fab33b5d2467901aec31ec35153b784f7a2cb817ac86/envision/envision.css</v>
       </c>
       <c r="C98" t="str">
         <v>Stylesheet</v>
@@ -3124,16 +3124,16 @@
         <v>text/css</v>
       </c>
       <c r="E98">
-        <v>22078</v>
+        <v>22101</v>
       </c>
       <c r="F98">
-        <v>255322</v>
+        <v>255462</v>
       </c>
       <c r="G98">
-        <v>0.006420569413999999</v>
+        <v>0.006427258112999999</v>
       </c>
       <c r="H98">
-        <v>0.0084576711492</v>
+        <v>0.0084664820214</v>
       </c>
     </row>
     <row r="99">
@@ -3141,7 +3141,7 @@
         <v>3</v>
       </c>
       <c r="B99" t="str">
-        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/91.3b84deaf195b246453113283/1761196265541/0/sv-template-asset.css</v>
+        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/91.3b84deaf195b246453113283/1763011193473/0/sv-template-asset.css</v>
       </c>
       <c r="C99" t="str">
         <v>Stylesheet</v>
@@ -3167,7 +3167,7 @@
         <v>3</v>
       </c>
       <c r="B100" t="str">
-        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/1761196265355/sitevision-spacing.css</v>
+        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/1763011193258/sitevision-spacing.css</v>
       </c>
       <c r="C100" t="str">
         <v>Stylesheet</v>
@@ -3349,7 +3349,7 @@
         <v>3</v>
       </c>
       <c r="B107" t="str">
-        <v>https://www.lunner.kommune.no/sitevision/system-resource/c5a7128bfdb3cfc20145efe038a97e77f0563f1309026071e4089cd19ff1d5e3/js/jquery.js</v>
+        <v>https://www.lunner.kommune.no/sitevision/system-resource/18b33493fcb0e46f4807fab33b5d2467901aec31ec35153b784f7a2cb817ac86/js/jquery.js</v>
       </c>
       <c r="C107" t="str">
         <v>Script</v>
@@ -3375,7 +3375,7 @@
         <v>3</v>
       </c>
       <c r="B108" t="str">
-        <v>https://www.lunner.kommune.no/sitevision/system-resource/c5a7128bfdb3cfc20145efe038a97e77f0563f1309026071e4089cd19ff1d5e3/envision/envision.js</v>
+        <v>https://www.lunner.kommune.no/sitevision/system-resource/18b33493fcb0e46f4807fab33b5d2467901aec31ec35153b784f7a2cb817ac86/envision/envision.js</v>
       </c>
       <c r="C108" t="str">
         <v>Script</v>
@@ -3384,16 +3384,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E108">
-        <v>17895</v>
+        <v>17837</v>
       </c>
       <c r="F108">
-        <v>71690</v>
+        <v>71762</v>
       </c>
       <c r="G108">
-        <v>0.0052040986349999995</v>
+        <v>0.005187231480999999</v>
       </c>
       <c r="H108">
-        <v>0.006855241653</v>
+        <v>0.006833022931799999</v>
       </c>
     </row>
     <row r="109">
@@ -3401,7 +3401,7 @@
         <v>3</v>
       </c>
       <c r="B109" t="str">
-        <v>https://www.lunner.kommune.no/sitevision/system-resource/c5a7128bfdb3cfc20145efe038a97e77f0563f1309026071e4089cd19ff1d5e3/js/utils.js</v>
+        <v>https://www.lunner.kommune.no/sitevision/system-resource/18b33493fcb0e46f4807fab33b5d2467901aec31ec35153b784f7a2cb817ac86/js/utils.js</v>
       </c>
       <c r="C109" t="str">
         <v>Script</v>
@@ -3410,16 +3410,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E109">
-        <v>18832</v>
+        <v>18673</v>
       </c>
       <c r="F109">
-        <v>58222</v>
+        <v>58086</v>
       </c>
       <c r="G109">
-        <v>0.005476590415999999</v>
+        <v>0.005430351149</v>
       </c>
       <c r="H109">
-        <v>0.0072141889247999995</v>
+        <v>0.007153278982200001</v>
       </c>
     </row>
     <row r="110">
@@ -3427,7 +3427,7 @@
         <v>3</v>
       </c>
       <c r="B110" t="str">
-        <v>https://www.lunner.kommune.no/sitevision/system-resource/c5a7128bfdb3cfc20145efe038a97e77f0563f1309026071e4089cd19ff1d5e3/js/portlets.js</v>
+        <v>https://www.lunner.kommune.no/sitevision/system-resource/18b33493fcb0e46f4807fab33b5d2467901aec31ec35153b784f7a2cb817ac86/js/portlets.js</v>
       </c>
       <c r="C110" t="str">
         <v>Script</v>
@@ -3436,16 +3436,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E110">
-        <v>39317</v>
+        <v>38892</v>
       </c>
       <c r="F110">
-        <v>152113</v>
+        <v>149358</v>
       </c>
       <c r="G110">
-        <v>0.011433894720999998</v>
+        <v>0.011310299195999999</v>
       </c>
       <c r="H110">
-        <v>0.015061611403800003</v>
+        <v>0.014898801808799999</v>
       </c>
     </row>
     <row r="111">
@@ -3505,7 +3505,7 @@
         <v>3</v>
       </c>
       <c r="B113" t="str">
-        <v>https://www.lunner.kommune.no/images/200.2eacad2219a0f6ddb02a152/1762754046280/Folkehelseunders%C3%B8kelsen%202025.jpg</v>
+        <v>https://www.lunner.kommune.no/images/200.205d557e19a7ba4e8d145b/1763045970481/Arild%20Hammerhaug.jpg</v>
       </c>
       <c r="C113" t="str">
         <v>Image</v>
@@ -3514,16 +3514,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E113">
-        <v>61172</v>
+        <v>32414</v>
       </c>
       <c r="F113">
-        <v>60883</v>
+        <v>32125</v>
       </c>
       <c r="G113">
-        <v>0.017789612835999998</v>
+        <v>0.009426412581999999</v>
       </c>
       <c r="H113">
-        <v>0.0234338554008</v>
+        <v>0.0124172004996</v>
       </c>
     </row>
     <row r="114">
@@ -3531,7 +3531,7 @@
         <v>3</v>
       </c>
       <c r="B114" t="str">
-        <v>https://www.lunner.kommune.no/images/200.6bd81ce219a0f6105ac8c77/1762601945794/Utslipp%20Harestuvannet.jpg</v>
+        <v>https://www.lunner.kommune.no/images/200.2eacad2219a0f6ddb02a152/1762754046280/Folkehelseunders%C3%B8kelsen%202025.jpg</v>
       </c>
       <c r="C114" t="str">
         <v>Image</v>
@@ -3540,16 +3540,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E114">
-        <v>138094</v>
+        <v>61172</v>
       </c>
       <c r="F114">
-        <v>137804</v>
+        <v>60883</v>
       </c>
       <c r="G114">
-        <v>0.040159530421999996</v>
+        <v>0.017789612835999998</v>
       </c>
       <c r="H114">
-        <v>0.05290124285160001</v>
+        <v>0.0234338554008</v>
       </c>
     </row>
     <row r="115">
@@ -3557,7 +3557,7 @@
         <v>3</v>
       </c>
       <c r="B115" t="str">
-        <v>https://www.lunner.kommune.no/images/200.4006d57419897754ab712cc/1755161988986/Gutt%20med%20skolesekk.%20Crop2.jpg</v>
+        <v>https://www.lunner.kommune.no/images/200.6bd81ce219a0f6105ac8c77/1762601945794/Utslipp%20Harestuvannet.jpg</v>
       </c>
       <c r="C115" t="str">
         <v>Image</v>
@@ -3566,16 +3566,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E115">
-        <v>64901</v>
+        <v>138094</v>
       </c>
       <c r="F115">
-        <v>64612</v>
+        <v>137804</v>
       </c>
       <c r="G115">
-        <v>0.018874054512999998</v>
+        <v>0.040159530421999996</v>
       </c>
       <c r="H115">
-        <v>0.024862365941399997</v>
+        <v>0.05290124285160001</v>
       </c>
     </row>
     <row r="116">
@@ -3583,7 +3583,7 @@
         <v>3</v>
       </c>
       <c r="B116" t="str">
-        <v>https://www.lunner.kommune.no/images/200.368d0ee119a0f52dd16882c/1762492536806/Marineth%20p%C3%A5%20kontoret%20Crop.jpg</v>
+        <v>https://www.lunner.kommune.no/images/200.4006d57419897754ab712cc/1755161988986/Gutt%20med%20skolesekk.%20Crop2.jpg</v>
       </c>
       <c r="C116" t="str">
         <v>Image</v>
@@ -3592,16 +3592,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E116">
-        <v>122372</v>
+        <v>64901</v>
       </c>
       <c r="F116">
-        <v>122082</v>
+        <v>64612</v>
       </c>
       <c r="G116">
-        <v>0.035587368435999994</v>
+        <v>0.018874054512999998</v>
       </c>
       <c r="H116">
-        <v>0.04687843708080001</v>
+        <v>0.024862365941399997</v>
       </c>
     </row>
     <row r="117">
@@ -3609,7 +3609,7 @@
         <v>3</v>
       </c>
       <c r="B117" t="str">
-        <v>https://www.lunner.kommune.no/images/200.2fc8c13919a0f44c70bacce/1762430143729/Arild%20p%C3%A5%20kontoret.JPEG</v>
+        <v>https://www.lunner.kommune.no/images/200.368d0ee119a0f52dd16882c/1762492536806/Marineth%20p%C3%A5%20kontoret%20Crop.jpg</v>
       </c>
       <c r="C117" t="str">
         <v>Image</v>
@@ -3618,16 +3618,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E117">
-        <v>116657</v>
+        <v>122372</v>
       </c>
       <c r="F117">
-        <v>116367</v>
+        <v>122082</v>
       </c>
       <c r="G117">
-        <v>0.03392537214099999</v>
+        <v>0.035587368435999994</v>
       </c>
       <c r="H117">
-        <v>0.044689126879800006</v>
+        <v>0.04687843708080001</v>
       </c>
     </row>
     <row r="118">
@@ -3635,7 +3635,7 @@
         <v>3</v>
       </c>
       <c r="B118" t="str">
-        <v>https://www.lunner.kommune.no/images/200.6bd81ce219a0f6105ac6a03/1762254786312/Hege%20Torp%20crop.jpg</v>
+        <v>https://www.lunner.kommune.no/images/200.2fc8c13919a0f44c70bacce/1762430143729/Arild%20p%C3%A5%20kontoret.JPEG</v>
       </c>
       <c r="C118" t="str">
         <v>Image</v>
@@ -3644,16 +3644,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E118">
-        <v>111682</v>
+        <v>116657</v>
       </c>
       <c r="F118">
-        <v>111392</v>
+        <v>116367</v>
       </c>
       <c r="G118">
-        <v>0.032478577466</v>
+        <v>0.03392537214099999</v>
       </c>
       <c r="H118">
-        <v>0.0427832969148</v>
+        <v>0.044689126879800006</v>
       </c>
     </row>
     <row r="119">
@@ -3739,7 +3739,7 @@
         <v>3</v>
       </c>
       <c r="B122" t="str">
-        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/91.3b84deaf195b246453113283/1761196265550/BODY/0/sv-template-asset.js</v>
+        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/91.3b84deaf195b246453113283/1763011193483/BODY/0/sv-template-asset.js</v>
       </c>
       <c r="C122" t="str">
         <v>Script</v>
@@ -3765,7 +3765,7 @@
         <v>3</v>
       </c>
       <c r="B123" t="str">
-        <v>https://www.lunner.kommune.no/sitevision/system-resource/c5a7128bfdb3cfc20145efe038a97e77f0563f1309026071e4089cd19ff1d5e3/js/webAppExternals/react_18_3.js</v>
+        <v>https://www.lunner.kommune.no/sitevision/system-resource/18b33493fcb0e46f4807fab33b5d2467901aec31ec35153b784f7a2cb817ac86/js/webAppExternals/react_18_3.js</v>
       </c>
       <c r="C123" t="str">
         <v>Script</v>
@@ -3800,16 +3800,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E124">
-        <v>41219</v>
+        <v>41227</v>
       </c>
       <c r="F124">
         <v>138254</v>
       </c>
       <c r="G124">
-        <v>0.011987021046999998</v>
+        <v>0.011989347550999998</v>
       </c>
       <c r="H124">
-        <v>0.015790232226600004</v>
+        <v>0.015793296877799998</v>
       </c>
     </row>
     <row r="125">
@@ -3852,16 +3852,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E126">
-        <v>24570</v>
+        <v>24571</v>
       </c>
       <c r="F126">
         <v>74871</v>
       </c>
       <c r="G126">
-        <v>0.00714527541</v>
+        <v>0.0071455662229999994</v>
       </c>
       <c r="H126">
-        <v>0.009412309998000001</v>
+        <v>0.009412693079400002</v>
       </c>
     </row>
     <row r="127">
@@ -3895,7 +3895,7 @@
         <v>3</v>
       </c>
       <c r="B128" t="str">
-        <v>https://www.lunner.kommune.no/sitevision/system-resource/c5a7128bfdb3cfc20145efe038a97e77f0563f1309026071e4089cd19ff1d5e3/webapps/webapp_sdk-legacy.js</v>
+        <v>https://www.lunner.kommune.no/sitevision/system-resource/18b33493fcb0e46f4807fab33b5d2467901aec31ec35153b784f7a2cb817ac86/webapps/webapp_sdk-legacy.js</v>
       </c>
       <c r="C128" t="str">
         <v>Script</v>
@@ -4129,7 +4129,7 @@
         <v>3</v>
       </c>
       <c r="B137" t="str">
-        <v>https://www.lunner.kommune.no/sitevision/system-resource/c5a7128bfdb3cfc20145efe038a97e77f0563f1309026071e4089cd19ff1d5e3/envision/popper-1c40e6672ac9d88ded8c.js</v>
+        <v>https://www.lunner.kommune.no/sitevision/system-resource/18b33493fcb0e46f4807fab33b5d2467901aec31ec35153b784f7a2cb817ac86/envision/popper-7d0017b4b0eee8522ac7.js</v>
       </c>
       <c r="C137" t="str">
         <v>Script</v>
@@ -4138,16 +4138,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E137">
-        <v>6837</v>
+        <v>6812</v>
       </c>
       <c r="F137">
-        <v>19616</v>
+        <v>19517</v>
       </c>
       <c r="G137">
-        <v>0.0019882884809999998</v>
+        <v>0.001981018156</v>
       </c>
       <c r="H137">
-        <v>0.0026191275318</v>
+        <v>0.0026095504968</v>
       </c>
     </row>
     <row r="138">
@@ -4235,10 +4235,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>44652</v>
+        <v>44684</v>
       </c>
       <c r="D2">
-        <v>222870</v>
+        <v>223257</v>
       </c>
     </row>
     <row r="3">
@@ -4249,10 +4249,10 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>157680</v>
+        <v>158349</v>
       </c>
       <c r="D3">
-        <v>1754859</v>
+        <v>1761417</v>
       </c>
     </row>
     <row r="4">
@@ -4263,10 +4263,10 @@
         <v>36</v>
       </c>
       <c r="C4">
-        <v>821274</v>
+        <v>819292</v>
       </c>
       <c r="D4">
-        <v>2756538</v>
+        <v>2747784</v>
       </c>
     </row>
     <row r="5">
@@ -4277,10 +4277,10 @@
         <v>33</v>
       </c>
       <c r="C5">
-        <v>2401470</v>
+        <v>2163666</v>
       </c>
       <c r="D5">
-        <v>2421195</v>
+        <v>2183394</v>
       </c>
     </row>
     <row r="6">
@@ -4372,13 +4372,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1239153</v>
+        <v>1159462</v>
       </c>
       <c r="C2">
-        <v>0.3603618013889999</v>
+        <v>0.33718662260599996</v>
       </c>
       <c r="D2">
-        <v>0.4746964660542</v>
+        <v>0.4441683262068001</v>
       </c>
     </row>
     <row r="3">
@@ -4386,13 +4386,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1239152</v>
+        <v>1159452</v>
       </c>
       <c r="C3">
-        <v>0.3603615105759999</v>
+        <v>0.33718371447599993</v>
       </c>
       <c r="D3">
-        <v>0.4746960829728001</v>
+        <v>0.4441644953928</v>
       </c>
     </row>
     <row r="4">
@@ -4400,13 +4400,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1239154</v>
+        <v>1159460</v>
       </c>
       <c r="C4">
-        <v>0.36036209220199994</v>
+        <v>0.33718604097999993</v>
       </c>
       <c r="D4">
-        <v>0.4746968491356</v>
+        <v>0.44416756004400004</v>
       </c>
     </row>
     <row r="5">
@@ -4414,13 +4414,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>1239153</v>
+        <v>1159460</v>
       </c>
       <c r="C5">
-        <v>0.3603618013889999</v>
+        <v>0.33718604097999993</v>
       </c>
       <c r="D5">
-        <v>0.4746964660542</v>
+        <v>0.44416756004400004</v>
       </c>
     </row>
   </sheetData>

--- a/Midterm-exam/evidence/spreadsheets/per_site/www.lunner.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.lunner.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6700.09</v>
+        <v>4952.737</v>
       </c>
       <c r="C2">
-        <v>2676.072</v>
+        <v>2454.346</v>
       </c>
       <c r="D2">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="E2">
-        <v>6722.59</v>
+        <v>5319.037</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>0.0020052943368560174</v>
       </c>
       <c r="H2">
-        <v>2676.072</v>
+        <v>2454.346</v>
       </c>
       <c r="I2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J2">
-        <v>1159462</v>
+        <v>1159468</v>
       </c>
       <c r="K2">
         <v>46</v>
@@ -480,31 +480,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6636.6205</v>
+        <v>6325.0425</v>
       </c>
       <c r="C3">
-        <v>2490.3890000000006</v>
+        <v>2532.0254999999997</v>
       </c>
       <c r="D3">
-        <v>543</v>
+        <v>470</v>
       </c>
       <c r="E3">
-        <v>6651.620500000001</v>
+        <v>6325.0425</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G3">
-        <v>0.0020052943368560174</v>
+        <v>0.003864698216668795</v>
       </c>
       <c r="H3">
-        <v>2490.3890000000006</v>
+        <v>2532.0254999999997</v>
       </c>
       <c r="I3">
         <v>74</v>
       </c>
       <c r="J3">
-        <v>1159452</v>
+        <v>1159451</v>
       </c>
       <c r="K3">
         <v>46</v>
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>7076.743499999999</v>
+        <v>6029.834000000002</v>
       </c>
       <c r="C4">
-        <v>2525.4614999999994</v>
+        <v>2477.572</v>
       </c>
       <c r="D4">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="E4">
-        <v>7136.7435</v>
+        <v>6029.834000000003</v>
       </c>
       <c r="F4">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>0.003864698216668795</v>
+        <v>0.0020052943368560174</v>
       </c>
       <c r="H4">
-        <v>2525.4614999999994</v>
+        <v>2477.572</v>
       </c>
       <c r="I4">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J4">
-        <v>1159460</v>
+        <v>1159453</v>
       </c>
       <c r="K4">
         <v>46</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>6700.09</v>
+        <v>6029.834000000002</v>
       </c>
       <c r="C5">
-        <v>2525.4614999999994</v>
+        <v>2477.572</v>
       </c>
       <c r="D5">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="E5">
-        <v>6722.59</v>
+        <v>6029.834000000003</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>0.0020052943368560174</v>
       </c>
       <c r="H5">
-        <v>2525.4614999999994</v>
+        <v>2477.572</v>
       </c>
       <c r="I5">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J5">
-        <v>1159460</v>
+        <v>1159453</v>
       </c>
       <c r="K5">
         <v>46</v>
@@ -634,16 +634,16 @@
         <v>text/html</v>
       </c>
       <c r="E2">
-        <v>14895</v>
+        <v>14894</v>
       </c>
       <c r="F2">
-        <v>74419</v>
+        <v>74418</v>
       </c>
       <c r="G2">
-        <v>0.0043316596349999995</v>
+        <v>0.004331368822</v>
       </c>
       <c r="H2">
-        <v>0.0057059974529999995</v>
+        <v>0.0057056143716</v>
       </c>
     </row>
     <row r="3">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="str">
-        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/1763010998949/sitevision-responsive-grids.css?gridConfigs=651.3b84deaf195b246453113248_FLUID_GRID&amp;pushPull=false</v>
+        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/1763011797508/sitevision-responsive-grids.css?gridConfigs=651.3b84deaf195b246453113248_FLUID_GRID&amp;pushPull=false</v>
       </c>
       <c r="C3" t="str">
         <v>Stylesheet</v>
@@ -677,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="str">
-        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/0/2688/print/SiteVision.css</v>
+        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/0/339/print/SiteVision.css</v>
       </c>
       <c r="C4" t="str">
         <v>Stylesheet</v>
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="str">
-        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/91.3b84deaf195b246453113283/1763011193473/0/sv-template-asset.css</v>
+        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/91.3b84deaf195b246453113283/1763012034813/0/sv-template-asset.css</v>
       </c>
       <c r="C7" t="str">
         <v>Stylesheet</v>
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="str">
-        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/1763011193258/sitevision-spacing.css</v>
+        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/1763012034659/sitevision-spacing.css</v>
       </c>
       <c r="C8" t="str">
         <v>Stylesheet</v>
@@ -1353,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="str">
-        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/91.3b84deaf195b246453113283/1763011193483/BODY/0/sv-template-asset.js</v>
+        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/91.3b84deaf195b246453113283/1763012034821/BODY/0/sv-template-asset.js</v>
       </c>
       <c r="C30" t="str">
         <v>Script</v>
@@ -1440,16 +1440,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E33">
-        <v>19906</v>
+        <v>19913</v>
       </c>
       <c r="F33">
         <v>58733</v>
       </c>
       <c r="G33">
-        <v>0.005788923577999999</v>
+        <v>0.005790959268999999</v>
       </c>
       <c r="H33">
-        <v>0.0076256183484000005</v>
+        <v>0.007628299918200001</v>
       </c>
     </row>
     <row r="34">
@@ -1827,16 +1827,16 @@
         <v>text/html</v>
       </c>
       <c r="E48">
-        <v>14895</v>
+        <v>14894</v>
       </c>
       <c r="F48">
         <v>74419</v>
       </c>
       <c r="G48">
-        <v>0.0043316596349999995</v>
+        <v>0.004331368822</v>
       </c>
       <c r="H48">
-        <v>0.0057059974529999995</v>
+        <v>0.0057056143716</v>
       </c>
     </row>
     <row r="49">
@@ -1844,7 +1844,7 @@
         <v>2</v>
       </c>
       <c r="B49" t="str">
-        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/1763012658279/sitevision-responsive-grids.css?gridConfigs=651.3b84deaf195b246453113248_FLUID_GRID&amp;pushPull=false</v>
+        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/1763010998949/sitevision-responsive-grids.css?gridConfigs=651.3b84deaf195b246453113248_FLUID_GRID&amp;pushPull=false</v>
       </c>
       <c r="C49" t="str">
         <v>Stylesheet</v>
@@ -1870,7 +1870,7 @@
         <v>2</v>
       </c>
       <c r="B50" t="str">
-        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/0/9088/print/SiteVision.css</v>
+        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/0/2688/print/SiteVision.css</v>
       </c>
       <c r="C50" t="str">
         <v>Stylesheet</v>
@@ -1948,7 +1948,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="str">
-        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/91.3b84deaf195b246453113283/1763012866781/0/sv-template-asset.css</v>
+        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/91.3b84deaf195b246453113283/1763011193473/0/sv-template-asset.css</v>
       </c>
       <c r="C53" t="str">
         <v>Stylesheet</v>
@@ -1974,7 +1974,7 @@
         <v>2</v>
       </c>
       <c r="B54" t="str">
-        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/1763012866620/sitevision-spacing.css</v>
+        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/1763011193258/sitevision-spacing.css</v>
       </c>
       <c r="C54" t="str">
         <v>Stylesheet</v>
@@ -2546,7 +2546,7 @@
         <v>2</v>
       </c>
       <c r="B76" t="str">
-        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/91.3b84deaf195b246453113283/1763012866789/BODY/0/sv-template-asset.js</v>
+        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/91.3b84deaf195b246453113283/1763011193483/BODY/0/sv-template-asset.js</v>
       </c>
       <c r="C76" t="str">
         <v>Script</v>
@@ -2858,25 +2858,25 @@
         <v>2</v>
       </c>
       <c r="B88" t="str">
-        <v>https://www.lunner.kommune.no/sitevision/system-resource/18b33493fcb0e46f4807fab33b5d2467901aec31ec35153b784f7a2cb817ac86/envision/popper-7d0017b4b0eee8522ac7.js</v>
+        <v>https://www.lunner.kommune.no/appresource/2.3b84deaf195b24645311301a/12.3b84deaf195b246453114ea2/menuitems?svAjaxReqParam=ajax</v>
       </c>
       <c r="C88" t="str">
-        <v>Script</v>
+        <v>XHR</v>
       </c>
       <c r="D88" t="str">
-        <v>text/javascript</v>
+        <v>application/json</v>
       </c>
       <c r="E88">
-        <v>6812</v>
+        <v>686</v>
       </c>
       <c r="F88">
-        <v>19517</v>
+        <v>1929</v>
       </c>
       <c r="G88">
-        <v>0.001981018156</v>
+        <v>0.00019949771799999995</v>
       </c>
       <c r="H88">
-        <v>0.0026095504968</v>
+        <v>0.0002627938404</v>
       </c>
     </row>
     <row r="89">
@@ -2884,7 +2884,7 @@
         <v>2</v>
       </c>
       <c r="B89" t="str">
-        <v>https://www.lunner.kommune.no/appresource/2.3b84deaf195b24645311301a/12.3b84deaf195b246453114ea2/menuitems?svAjaxReqParam=ajax</v>
+        <v>https://www.lunner.kommune.no/appresource/2.3b84deaf195b24645311301a/12.3b84deaf195b246453114aec/menuitems?svAjaxReqParam=ajax</v>
       </c>
       <c r="C89" t="str">
         <v>XHR</v>
@@ -2893,16 +2893,16 @@
         <v>application/json</v>
       </c>
       <c r="E89">
-        <v>686</v>
+        <v>474</v>
       </c>
       <c r="F89">
-        <v>1929</v>
+        <v>479</v>
       </c>
       <c r="G89">
-        <v>0.00019949771799999995</v>
+        <v>0.00013784536199999998</v>
       </c>
       <c r="H89">
-        <v>0.0002627938404</v>
+        <v>0.0001815805836</v>
       </c>
     </row>
     <row r="90">
@@ -2910,7 +2910,7 @@
         <v>2</v>
       </c>
       <c r="B90" t="str">
-        <v>https://www.lunner.kommune.no/appresource/2.3b84deaf195b24645311301a/12.3b84deaf195b246453114aec/menuitems?svAjaxReqParam=ajax</v>
+        <v>https://www.lunner.kommune.no/appresource/2.3b84deaf195b24645311301a/12.3b84deaf195b246453113290/menuitems?svAjaxReqParam=ajax</v>
       </c>
       <c r="C90" t="str">
         <v>XHR</v>
@@ -2919,16 +2919,16 @@
         <v>application/json</v>
       </c>
       <c r="E90">
-        <v>474</v>
+        <v>554</v>
       </c>
       <c r="F90">
-        <v>479</v>
+        <v>944</v>
       </c>
       <c r="G90">
-        <v>0.00013784536199999998</v>
+        <v>0.00016111040199999997</v>
       </c>
       <c r="H90">
-        <v>0.0001815805836</v>
+        <v>0.0002122270956</v>
       </c>
     </row>
     <row r="91">
@@ -2936,25 +2936,25 @@
         <v>2</v>
       </c>
       <c r="B91" t="str">
-        <v>https://www.lunner.kommune.no/appresource/2.3b84deaf195b24645311301a/12.3b84deaf195b246453113290/menuitems?svAjaxReqParam=ajax</v>
+        <v>https://www.lunner.kommune.no/sitevision/system-resource/18b33493fcb0e46f4807fab33b5d2467901aec31ec35153b784f7a2cb817ac86/envision/popper-7d0017b4b0eee8522ac7.js</v>
       </c>
       <c r="C91" t="str">
-        <v>XHR</v>
+        <v>Script</v>
       </c>
       <c r="D91" t="str">
-        <v>application/json</v>
+        <v>text/javascript</v>
       </c>
       <c r="E91">
-        <v>554</v>
+        <v>6812</v>
       </c>
       <c r="F91">
-        <v>944</v>
+        <v>19517</v>
       </c>
       <c r="G91">
-        <v>0.00016111040199999997</v>
+        <v>0.001981018156</v>
       </c>
       <c r="H91">
-        <v>0.0002122270956</v>
+        <v>0.0026095504968</v>
       </c>
     </row>
     <row r="92">
@@ -3020,16 +3020,16 @@
         <v>text/html</v>
       </c>
       <c r="E94">
-        <v>14894</v>
+        <v>14896</v>
       </c>
       <c r="F94">
         <v>74419</v>
       </c>
       <c r="G94">
-        <v>0.004331368822</v>
+        <v>0.004331950447999999</v>
       </c>
       <c r="H94">
-        <v>0.0057056143716</v>
+        <v>0.0057063805344</v>
       </c>
     </row>
     <row r="95">
@@ -3037,7 +3037,7 @@
         <v>3</v>
       </c>
       <c r="B95" t="str">
-        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/1763010998949/sitevision-responsive-grids.css?gridConfigs=651.3b84deaf195b246453113248_FLUID_GRID&amp;pushPull=false</v>
+        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/1763013430042/sitevision-responsive-grids.css?gridConfigs=651.3b84deaf195b246453113248_FLUID_GRID&amp;pushPull=false</v>
       </c>
       <c r="C95" t="str">
         <v>Stylesheet</v>
@@ -3063,7 +3063,7 @@
         <v>3</v>
       </c>
       <c r="B96" t="str">
-        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/0/2688/print/SiteVision.css</v>
+        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/0/2004/print/SiteVision.css</v>
       </c>
       <c r="C96" t="str">
         <v>Stylesheet</v>
@@ -3141,7 +3141,7 @@
         <v>3</v>
       </c>
       <c r="B99" t="str">
-        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/91.3b84deaf195b246453113283/1763011193473/0/sv-template-asset.css</v>
+        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/91.3b84deaf195b246453113283/1763013653397/0/sv-template-asset.css</v>
       </c>
       <c r="C99" t="str">
         <v>Stylesheet</v>
@@ -3167,7 +3167,7 @@
         <v>3</v>
       </c>
       <c r="B100" t="str">
-        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/1763011193258/sitevision-spacing.css</v>
+        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/1763013653250/sitevision-spacing.css</v>
       </c>
       <c r="C100" t="str">
         <v>Stylesheet</v>
@@ -3739,7 +3739,7 @@
         <v>3</v>
       </c>
       <c r="B122" t="str">
-        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/91.3b84deaf195b246453113283/1763011193483/BODY/0/sv-template-asset.js</v>
+        <v>https://www.lunner.kommune.no/2.3b84deaf195b24645311301a/91.3b84deaf195b246453113283/1763013653406/BODY/0/sv-template-asset.js</v>
       </c>
       <c r="C122" t="str">
         <v>Script</v>
@@ -3800,16 +3800,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E124">
-        <v>41227</v>
+        <v>41219</v>
       </c>
       <c r="F124">
         <v>138254</v>
       </c>
       <c r="G124">
-        <v>0.011989347550999998</v>
+        <v>0.011987021046999998</v>
       </c>
       <c r="H124">
-        <v>0.015793296877799998</v>
+        <v>0.015790232226600004</v>
       </c>
     </row>
     <row r="125">
@@ -3852,16 +3852,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E126">
-        <v>24571</v>
+        <v>24570</v>
       </c>
       <c r="F126">
         <v>74871</v>
       </c>
       <c r="G126">
-        <v>0.0071455662229999994</v>
+        <v>0.00714527541</v>
       </c>
       <c r="H126">
-        <v>0.009412693079400002</v>
+        <v>0.009412309998000001</v>
       </c>
     </row>
     <row r="127">
@@ -4238,7 +4238,7 @@
         <v>44684</v>
       </c>
       <c r="D2">
-        <v>223257</v>
+        <v>223256</v>
       </c>
     </row>
     <row r="3">
@@ -4263,7 +4263,7 @@
         <v>36</v>
       </c>
       <c r="C4">
-        <v>819292</v>
+        <v>819290</v>
       </c>
       <c r="D4">
         <v>2747784</v>
@@ -4372,13 +4372,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1159462</v>
+        <v>1159468</v>
       </c>
       <c r="C2">
-        <v>0.33718662260599996</v>
+        <v>0.33718836748399994</v>
       </c>
       <c r="D2">
-        <v>0.4441683262068001</v>
+        <v>0.4441706246952001</v>
       </c>
     </row>
     <row r="3">
@@ -4386,13 +4386,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1159452</v>
+        <v>1159451</v>
       </c>
       <c r="C3">
-        <v>0.33718371447599993</v>
+        <v>0.3371834236629999</v>
       </c>
       <c r="D3">
-        <v>0.4441644953928</v>
+        <v>0.4441641123114</v>
       </c>
     </row>
     <row r="4">
@@ -4400,13 +4400,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1159460</v>
+        <v>1159453</v>
       </c>
       <c r="C4">
-        <v>0.33718604097999993</v>
+        <v>0.33718400528899994</v>
       </c>
       <c r="D4">
-        <v>0.44416756004400004</v>
+        <v>0.4441648784742</v>
       </c>
     </row>
     <row r="5">
@@ -4414,13 +4414,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>1159460</v>
+        <v>1159453</v>
       </c>
       <c r="C5">
-        <v>0.33718604097999993</v>
+        <v>0.33718400528899994</v>
       </c>
       <c r="D5">
-        <v>0.44416756004400004</v>
+        <v>0.4441648784742</v>
       </c>
     </row>
   </sheetData>
